--- a/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200225.xlsx
+++ b/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200225.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200225(今天)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87BBEED-2373-4CE9-88F3-5DC3A8DE009B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC30126E-833C-4056-A401-6EA0BAEAEAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10919,8 +10919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11081,7 +11081,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="409.5">
+    <row r="2" spans="1:40" ht="16.5" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -11105,7 +11105,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12">
@@ -11149,7 +11149,7 @@
       <c r="AI2" s="15"/>
       <c r="AJ2" s="15"/>
     </row>
-    <row r="3" spans="1:40" ht="409.5">
+    <row r="3" spans="1:40" ht="16.5" customHeight="1">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="409.5">
+    <row r="4" spans="1:40" ht="16.5" customHeight="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="409.5">
+    <row r="5" spans="1:40" ht="16.5" customHeight="1">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="409.5">
+    <row r="6" spans="1:40" ht="16.5" customHeight="1">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="409.5">
+    <row r="7" spans="1:40" ht="16.5" customHeight="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="409.5">
+    <row r="8" spans="1:40" ht="16.5" customHeight="1">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -11428,13 +11428,13 @@
         <v>181</v>
       </c>
       <c r="K8" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" s="13">
         <v>16</v>
       </c>
       <c r="O8" s="13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S8" s="13" t="s">
         <v>3297</v>
@@ -11458,7 +11458,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="409.5">
+    <row r="9" spans="1:40" ht="16.5" customHeight="1">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="409.5">
+    <row r="10" spans="1:40" ht="16.5" customHeight="1">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="409.5">
+    <row r="11" spans="1:40" ht="16.5" customHeight="1">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="409.5">
+    <row r="12" spans="1:40" ht="16.5" customHeight="1">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="409.5">
+    <row r="13" spans="1:40" ht="16.5" customHeight="1">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="409.5">
+    <row r="14" spans="1:40" ht="16.5" customHeight="1">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="409.5">
+    <row r="15" spans="1:40" ht="16.5" customHeight="1">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -11783,14 +11783,11 @@
       <c r="G15" s="13" t="s">
         <v>3296</v>
       </c>
-      <c r="K15" s="13">
-        <v>12</v>
-      </c>
       <c r="N15" s="13">
         <v>2</v>
       </c>
       <c r="O15" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S15" s="13" t="s">
         <v>3297</v>
@@ -11841,8 +11838,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" xr:uid="{6E71B350-D5D9-4E71-A6C0-B6947AAE042B}"/>
-    <hyperlink ref="V3:V15" r:id="rId2" display="http://sxwjw.shaanxi.gov.cn/art/2020/2/26/art_9_68296.html" xr:uid="{95B79946-F501-490D-8BD4-B02659437ACB}"/>
+    <hyperlink ref="V3:V15" r:id="rId1" display="http://sxwjw.shaanxi.gov.cn/art/2020/2/26/art_9_68296.html" xr:uid="{95B79946-F501-490D-8BD4-B02659437ACB}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{6E71B350-D5D9-4E71-A6C0-B6947AAE042B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
